--- a/input/MasterTables/prueba_fhir300523.xlsx
+++ b/input/MasterTables/prueba_fhir300523.xlsx
@@ -905,7 +905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="1">
       <c r="A2" s="1">
         <v>28939.0</v>
       </c>
@@ -997,7 +997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="1">
         <v>28940.0</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="1">
         <v>28941.0</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="1">
       <c r="A5" s="1">
         <v>86749.0</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="1">
         <v>86750.0</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="1">
         <v>225565.0</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="1">
         <v>225566.0</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="1">
         <v>225567.0</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="1">
         <v>310112.0</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="1">
         <v>310113.0</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="1">
         <v>328024.0</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="1">
         <v>328025.0</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="1">
         <v>328026.0</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="1">
         <v>328027.0</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="1">
         <v>483014.0</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="1">
         <v>483015.0</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="1">
         <v>645986.0</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="1">
         <v>645987.0</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="1">
         <v>677552.0</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="1">
         <v>677553.0</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="1">
         <v>769805.0</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" ht="15.75" hidden="1" customHeight="1">
       <c r="A23" s="1">
         <v>769806.0</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" ht="15.75" hidden="1" customHeight="1">
       <c r="A24" s="1">
         <v>769807.0</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" ht="15.75" hidden="1" customHeight="1">
       <c r="A25" s="1">
         <v>812653.0</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" ht="15.75" hidden="1" customHeight="1">
       <c r="A26" s="1">
         <v>812654.0</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" ht="15.75" hidden="1" customHeight="1">
       <c r="A27" s="1">
         <v>812655.0</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" ht="15.75" hidden="1" customHeight="1">
       <c r="A28" s="1">
         <v>882293.0</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="1">
         <v>882294.0</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" ht="15.75" hidden="1" customHeight="1">
       <c r="A30" s="1">
         <v>882295.0</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" ht="15.75" hidden="1" customHeight="1">
       <c r="A31" s="1">
         <v>1021810.0</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="1">
         <v>1021811.0</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" ht="15.75" hidden="1" customHeight="1">
       <c r="A33" s="1">
         <v>1024406.0</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" ht="15.75" hidden="1" customHeight="1">
       <c r="A34" s="1">
         <v>1024407.0</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" ht="15.75" hidden="1" customHeight="1">
       <c r="A35" s="1">
         <v>1044817.0</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" ht="15.75" hidden="1" customHeight="1">
       <c r="A36" s="1">
         <v>1044818.0</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" ht="15.75" hidden="1" customHeight="1">
       <c r="A37" s="1">
         <v>1122027.0</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" ht="15.75" hidden="1" customHeight="1">
       <c r="A38" s="1">
         <v>1122028.0</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" ht="15.75" hidden="1" customHeight="1">
       <c r="A39" s="1">
         <v>1151563.0</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" ht="15.75" hidden="1" customHeight="1">
       <c r="A40" s="1">
         <v>1151564.0</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" ht="15.75" hidden="1" customHeight="1">
       <c r="A41" s="1">
         <v>1151565.0</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" ht="15.75" hidden="1" customHeight="1">
       <c r="A42" s="1">
         <v>1204973.0</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" ht="15.75" hidden="1" customHeight="1">
       <c r="A43" s="1">
         <v>1204974.0</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" ht="15.75" hidden="1" customHeight="1">
       <c r="A44" s="1">
         <v>1239072.0</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" ht="15.75" hidden="1" customHeight="1">
       <c r="A45" s="1">
         <v>1239073.0</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" ht="15.75" hidden="1" customHeight="1">
       <c r="A46" s="1">
         <v>1254451.0</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" ht="15.75" hidden="1" customHeight="1">
       <c r="A47" s="1">
         <v>1254452.0</v>
       </c>
@@ -6537,7 +6537,13 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$AI$49"/>
+  <autoFilter ref="$A$1:$AI$49">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="54007954"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
